--- a/工作進度 (1).xlsx
+++ b/工作進度 (1).xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20352"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41B76E25-3CC5-4D95-B583-A8E43262F98A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ADC3AC-0E31-FD46-B862-C252084637B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18560" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18560" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,14 @@
   </si>
   <si>
     <t>全部已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐楷程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 利用Word2Vec分析川普Twitter發言（建立好模型，可隨時更新），並分析波動較大的貼文中較常出現的文字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -149,7 +157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -592,23 +600,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7265625" customWidth="1"/>
-    <col min="4" max="4" width="52.08984375" customWidth="1"/>
-    <col min="5" max="5" width="65.36328125" customWidth="1"/>
-    <col min="6" max="6" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="52.1640625" customWidth="1"/>
+    <col min="5" max="5" width="65.33203125" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="18">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -628,7 +636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6">
       <c r="A2" s="3">
         <v>43793</v>
       </c>
@@ -648,7 +656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6">
       <c r="A3" s="4">
         <v>43793</v>
       </c>
@@ -668,7 +676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6">
       <c r="A4" s="6">
         <v>43793</v>
       </c>
@@ -688,7 +696,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6">
       <c r="A5" s="4">
         <v>43793</v>
       </c>
@@ -708,7 +716,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="8" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" s="8" customFormat="1" ht="66.75" customHeight="1">
       <c r="A7" s="7">
         <v>43823</v>
       </c>
@@ -725,7 +733,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6">
       <c r="A8" s="4">
         <v>43823</v>
       </c>
@@ -740,6 +748,23 @@
       </c>
       <c r="E8" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
+        <v>43824</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/工作進度 (1).xlsx
+++ b/工作進度 (1).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ADC3AC-0E31-FD46-B862-C252084637B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A4030C-5F59-4687-8408-673C06906A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18560" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已註冊API並利用Get Old Tweets內建套件完成抓取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>協助連線Mongo DB並匯入資料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,6 +146,18 @@
   </si>
   <si>
     <t xml:space="preserve"> 利用Word2Vec分析川普Twitter發言（建立好模型，可隨時更新），並分析波動較大的貼文中較常出現的文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已註冊API並利用Tweepy/Get Old Tweets內建套件完成抓取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>協助Mongodb資料匯入、統整書面報告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>協助將抓取的資料匯入Mongodb，並統整期末書面報告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -157,7 +165,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -600,23 +608,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" customWidth="1"/>
-    <col min="4" max="4" width="52.1640625" customWidth="1"/>
-    <col min="5" max="5" width="65.33203125" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6328125" customWidth="1"/>
+    <col min="4" max="4" width="52.1796875" customWidth="1"/>
+    <col min="5" max="5" width="65.36328125" customWidth="1"/>
+    <col min="6" max="6" width="29.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -636,7 +644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>43793</v>
       </c>
@@ -650,121 +658,138 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>43793</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="6">
         <v>43793</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>43793</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="7" spans="1:6" s="8" customFormat="1" ht="66.75" customHeight="1">
+    <row r="7" spans="1:6" s="8" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7">
         <v>43823</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>43823</v>
       </c>
       <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>43824</v>
       </c>
       <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="4">
+        <v>43824</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/工作進度 (1).xlsx
+++ b/工作進度 (1).xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A4030C-5F59-4687-8408-673C06906A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,13 +157,25 @@
   </si>
   <si>
     <t>協助將抓取的資料匯入Mongodb，並統整期末書面報告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>製作期末影片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預計今日晚上完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成期末影片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -271,7 +282,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -363,23 +374,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -415,23 +409,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -607,24 +584,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6328125" customWidth="1"/>
-    <col min="4" max="4" width="52.1796875" customWidth="1"/>
-    <col min="5" max="5" width="65.36328125" customWidth="1"/>
-    <col min="6" max="6" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" customWidth="1"/>
+    <col min="4" max="4" width="52.125" customWidth="1"/>
+    <col min="5" max="5" width="65.375" customWidth="1"/>
+    <col min="6" max="6" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -644,7 +621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43793</v>
       </c>
@@ -664,7 +641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43793</v>
       </c>
@@ -684,7 +661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>43793</v>
       </c>
@@ -704,7 +681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43793</v>
       </c>
@@ -724,7 +701,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="8" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" s="8" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>43823</v>
       </c>
@@ -741,7 +718,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43823</v>
       </c>
@@ -758,7 +735,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>43824</v>
       </c>
@@ -775,7 +752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>43824</v>
       </c>
@@ -790,6 +767,23 @@
       </c>
       <c r="E10" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>43824</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
